--- a/ACF.xlsx
+++ b/ACF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ROA</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Curr Ratio</t>
-  </si>
-  <si>
-    <t>D E Ratio</t>
   </si>
   <si>
     <t>LTDE Ratio</t>
@@ -503,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,13 +552,10 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>0.668348164123549</v>
@@ -587,75 +581,75 @@
       <c r="I2">
         <v>0.8011508851870756</v>
       </c>
+      <c r="J2">
+        <v>0.8197193807402814</v>
+      </c>
       <c r="K2">
-        <v>0.8197193807402814</v>
+        <v>0.9751926075304697</v>
       </c>
       <c r="L2">
-        <v>0.9782140938844403</v>
+        <v>0.9942754357907101</v>
       </c>
       <c r="M2">
-        <v>0.9942754357907101</v>
+        <v>0.5220110950502688</v>
       </c>
       <c r="N2">
-        <v>0.5220110950502688</v>
+        <v>0.9753940591996851</v>
       </c>
       <c r="O2">
-        <v>0.9753940591996851</v>
+        <v>-0.2757999114704237</v>
       </c>
       <c r="P2">
-        <v>-0.2757999114704237</v>
-      </c>
-      <c r="Q2">
         <v>0.913213693578669</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.7458781115464359</v>
+      </c>
+      <c r="E3">
+        <v>0.8202481609720529</v>
+      </c>
+      <c r="F3">
+        <v>0.8169193878084567</v>
+      </c>
+      <c r="G3">
+        <v>0.8202481609720529</v>
+      </c>
+      <c r="H3">
+        <v>-0.50202522212425</v>
+      </c>
+      <c r="I3">
+        <v>0.6887980000890064</v>
+      </c>
+      <c r="J3">
+        <v>0.7833671622556236</v>
+      </c>
+      <c r="K3">
+        <v>0.8494917904185264</v>
+      </c>
+      <c r="L3">
+        <v>0.9039422953987416</v>
+      </c>
+      <c r="M3">
+        <v>0.9620706843183601</v>
+      </c>
+      <c r="N3">
+        <v>0.8856417477759115</v>
+      </c>
+      <c r="O3">
+        <v>0.04511391012947295</v>
+      </c>
+      <c r="P3">
+        <v>0.8192941961767182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B3">
-        <v>0.8053338107005439</v>
-      </c>
-      <c r="E3">
-        <v>-0.2940917530616126</v>
-      </c>
-      <c r="F3">
-        <v>0.8812774416090042</v>
-      </c>
-      <c r="G3">
-        <v>-0.2940917530616126</v>
-      </c>
-      <c r="H3">
-        <v>0.02990442747454883</v>
-      </c>
-      <c r="I3">
-        <v>-0.4825128665478721</v>
-      </c>
-      <c r="K3">
-        <v>0.8762137376688517</v>
-      </c>
-      <c r="L3">
-        <v>0.3805426156015557</v>
-      </c>
-      <c r="M3">
-        <v>0.8571676051895011</v>
-      </c>
-      <c r="N3">
-        <v>0.9620706843183601</v>
-      </c>
-      <c r="O3">
-        <v>0.8856417477759115</v>
-      </c>
-      <c r="P3">
-        <v>0.04511391012947295</v>
-      </c>
-      <c r="Q3">
-        <v>0.7931007226524559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B4">
         <v>-0.08217279922360506</v>
@@ -675,81 +669,81 @@
       <c r="I4">
         <v>-0.07272458867499523</v>
       </c>
+      <c r="J4">
+        <v>0.514624046684745</v>
+      </c>
       <c r="K4">
-        <v>0.514624046684745</v>
+        <v>0.5658102912418772</v>
       </c>
       <c r="L4">
-        <v>0.5658102912418772</v>
+        <v>0.770827870742725</v>
       </c>
       <c r="M4">
-        <v>0.770827870742725</v>
+        <v>0.8891220937119682</v>
       </c>
       <c r="N4">
-        <v>0.8891220937119682</v>
+        <v>0.8072144645711365</v>
       </c>
       <c r="O4">
-        <v>0.8072144645711365</v>
+        <v>0.2751811615925578</v>
       </c>
       <c r="P4">
-        <v>0.2751811615925578</v>
-      </c>
-      <c r="Q4">
         <v>0.9436060398354192</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0.2185399490335703</v>
+      </c>
+      <c r="C5">
+        <v>0.0260435202260734</v>
+      </c>
+      <c r="D5">
+        <v>0.2641123419778137</v>
+      </c>
+      <c r="E5">
+        <v>0.3652973412240644</v>
+      </c>
+      <c r="F5">
+        <v>0.210149478693505</v>
+      </c>
+      <c r="G5">
+        <v>0.3652973412240644</v>
+      </c>
+      <c r="H5">
+        <v>0.007346956063191486</v>
+      </c>
+      <c r="I5">
+        <v>0.5949057338511495</v>
+      </c>
+      <c r="J5">
+        <v>0.7438817886408408</v>
+      </c>
+      <c r="K5">
+        <v>0.925492590383315</v>
+      </c>
+      <c r="L5">
+        <v>0.9348463482002226</v>
+      </c>
+      <c r="M5">
+        <v>0.878783603857814</v>
+      </c>
+      <c r="N5">
+        <v>0.9176616528891128</v>
+      </c>
+      <c r="O5">
+        <v>0.06412551448105658</v>
+      </c>
+      <c r="P5">
+        <v>0.9145014706170788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5">
-        <v>0.1454827447301144</v>
-      </c>
-      <c r="C5">
-        <v>-0.05088078892089995</v>
-      </c>
-      <c r="D5">
-        <v>0.05120206986929026</v>
-      </c>
-      <c r="E5">
-        <v>0.4073195281824054</v>
-      </c>
-      <c r="F5">
-        <v>0.2445992388473617</v>
-      </c>
-      <c r="G5">
-        <v>0.4073195281824054</v>
-      </c>
-      <c r="H5">
-        <v>-0.2648856146318752</v>
-      </c>
-      <c r="I5">
-        <v>0.01748471724419981</v>
-      </c>
-      <c r="K5">
-        <v>0.4948352441317163</v>
-      </c>
-      <c r="L5">
-        <v>0.8341664290021918</v>
-      </c>
-      <c r="M5">
-        <v>0.8969838355409894</v>
-      </c>
-      <c r="N5">
-        <v>0.878783603857814</v>
-      </c>
-      <c r="O5">
-        <v>0.9176616528891128</v>
-      </c>
-      <c r="P5">
-        <v>0.06412551448105658</v>
-      </c>
-      <c r="Q5">
-        <v>0.8618032387430369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B6">
         <v>0.5750034723963036</v>
@@ -775,31 +769,31 @@
       <c r="I6">
         <v>0.682565048199167</v>
       </c>
+      <c r="J6">
+        <v>0.7264176206951368</v>
+      </c>
       <c r="K6">
-        <v>0.7264176206951368</v>
+        <v>0.8709561567856801</v>
       </c>
       <c r="L6">
-        <v>0.9119995499835788</v>
+        <v>0.9881990235424727</v>
       </c>
       <c r="M6">
-        <v>0.9881990235424727</v>
+        <v>0.9898000876438806</v>
       </c>
       <c r="N6">
-        <v>0.9898000876438806</v>
+        <v>0.9808891188911691</v>
       </c>
       <c r="O6">
-        <v>0.9808891188911691</v>
+        <v>-0.4209194120680486</v>
       </c>
       <c r="P6">
-        <v>-0.4209194120680486</v>
-      </c>
-      <c r="Q6">
         <v>0.9632981463698943</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0.9225031121643943</v>
@@ -825,31 +819,31 @@
       <c r="I7">
         <v>0.7320374550375456</v>
       </c>
+      <c r="J7">
+        <v>0.9450414071467279</v>
+      </c>
       <c r="K7">
-        <v>0.9450414071467279</v>
+        <v>0.974001851074743</v>
       </c>
       <c r="L7">
-        <v>0.9777245699278864</v>
+        <v>0.9980215716657347</v>
       </c>
       <c r="M7">
-        <v>0.9980215716657347</v>
+        <v>0.99298106987496</v>
       </c>
       <c r="N7">
-        <v>0.99298106987496</v>
+        <v>0.9977643395943285</v>
       </c>
       <c r="O7">
-        <v>0.9977643395943285</v>
+        <v>-0.5666616791832572</v>
       </c>
       <c r="P7">
-        <v>-0.5666616791832572</v>
-      </c>
-      <c r="Q7">
         <v>0.9941630641116691</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.4174699149294094</v>
@@ -875,198 +869,231 @@
       <c r="I8">
         <v>0.7685130187950918</v>
       </c>
+      <c r="J8">
+        <v>0.9134935510288835</v>
+      </c>
       <c r="K8">
-        <v>0.9134935510288835</v>
+        <v>0.9752139610409719</v>
       </c>
       <c r="L8">
-        <v>0.9794209431186574</v>
+        <v>0.9956631708787353</v>
       </c>
       <c r="M8">
-        <v>0.9920548338864188</v>
+        <v>0.8795536029291838</v>
       </c>
       <c r="N8">
-        <v>0.8795536029291838</v>
+        <v>0.9980290709931552</v>
       </c>
       <c r="O8">
-        <v>0.9980290709931552</v>
+        <v>-0.4911648847323909</v>
       </c>
       <c r="P8">
-        <v>-0.4911648847323909</v>
-      </c>
-      <c r="Q8">
         <v>0.9055613348061332</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>0.1096336179898423</v>
+      </c>
+      <c r="C9">
+        <v>0.7456895615536961</v>
+      </c>
+      <c r="D9">
+        <v>0.6676625163657359</v>
+      </c>
+      <c r="E9">
+        <v>0.7905899095971721</v>
+      </c>
+      <c r="F9">
+        <v>0.1257826955606861</v>
+      </c>
+      <c r="G9">
+        <v>0.7905899095971721</v>
+      </c>
+      <c r="H9">
+        <v>0.6486523947044371</v>
+      </c>
+      <c r="I9">
+        <v>0.4213982283322782</v>
+      </c>
+      <c r="J9">
+        <v>0.6204186871345118</v>
+      </c>
+      <c r="K9">
+        <v>0.979734774971146</v>
+      </c>
+      <c r="L9">
+        <v>0.9950049218074797</v>
+      </c>
+      <c r="M9">
+        <v>0.9023695794303559</v>
+      </c>
+      <c r="N9">
+        <v>0.9906340323200589</v>
+      </c>
+      <c r="O9">
+        <v>-0.1759357500891073</v>
+      </c>
+      <c r="P9">
+        <v>0.8261417783675654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L9">
-        <v>0.9233945374389929</v>
-      </c>
-      <c r="N9">
-        <v>0.9023695794303559</v>
-      </c>
-      <c r="O9">
-        <v>0.9906340323200589</v>
-      </c>
-      <c r="P9">
-        <v>-0.1759357500891073</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>0.329978914196002</v>
+      </c>
+      <c r="C10">
+        <v>0.4610907140032206</v>
+      </c>
+      <c r="D10">
+        <v>0.7150531207220279</v>
+      </c>
+      <c r="E10">
+        <v>0.7607197150146894</v>
+      </c>
+      <c r="F10">
+        <v>0.4379562855318697</v>
+      </c>
+      <c r="G10">
+        <v>0.7607197150146894</v>
+      </c>
+      <c r="H10">
+        <v>0.4112076795944467</v>
+      </c>
+      <c r="I10">
+        <v>0.636885727946908</v>
+      </c>
+      <c r="J10">
+        <v>0.8350351482204329</v>
+      </c>
+      <c r="K10">
+        <v>0.973523338784972</v>
+      </c>
+      <c r="L10">
+        <v>0.9624567287272322</v>
+      </c>
+      <c r="M10">
+        <v>0.9671198581026133</v>
+      </c>
+      <c r="N10">
+        <v>0.9709538991949638</v>
+      </c>
+      <c r="O10">
+        <v>-0.2787880134848579</v>
+      </c>
+      <c r="P10">
+        <v>0.747267662371722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
-        <v>0.09351474100956611</v>
-      </c>
-      <c r="C10">
-        <v>0.1126027915427109</v>
-      </c>
-      <c r="D10">
-        <v>0.5081732242867244</v>
-      </c>
-      <c r="E10">
-        <v>0.7489242777057111</v>
-      </c>
-      <c r="F10">
-        <v>0.354282542040832</v>
-      </c>
-      <c r="G10">
-        <v>0.7489242777057111</v>
-      </c>
-      <c r="H10">
-        <v>0.4552779018321246</v>
-      </c>
-      <c r="I10">
-        <v>0.6401530305920976</v>
-      </c>
-      <c r="K10">
-        <v>0.733172730991584</v>
-      </c>
-      <c r="L10">
-        <v>0.9249178749073949</v>
-      </c>
-      <c r="M10">
-        <v>0.8222965635705957</v>
-      </c>
-      <c r="N10">
-        <v>0.9671198581026133</v>
-      </c>
-      <c r="O10">
-        <v>0.9709538991949638</v>
-      </c>
-      <c r="P10">
-        <v>-0.2787880134848579</v>
-      </c>
-      <c r="Q10">
-        <v>0.4617640693973061</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>0.7729288795902972</v>
+      </c>
+      <c r="C11">
+        <v>0.7893517787186675</v>
+      </c>
+      <c r="D11">
+        <v>0.807445436871376</v>
+      </c>
+      <c r="E11">
+        <v>0.8434326215009282</v>
+      </c>
+      <c r="F11">
+        <v>0.7468150006052745</v>
+      </c>
+      <c r="G11">
+        <v>0.8434326215009282</v>
+      </c>
+      <c r="H11">
+        <v>0.5935410463640532</v>
+      </c>
+      <c r="I11">
+        <v>0.5984526562596381</v>
+      </c>
+      <c r="J11">
+        <v>0.8536431248562228</v>
+      </c>
+      <c r="K11">
+        <v>0.9545206505557797</v>
+      </c>
+      <c r="L11">
+        <v>0.9772287963046613</v>
+      </c>
+      <c r="M11">
+        <v>0.8112095195381667</v>
+      </c>
+      <c r="N11">
+        <v>0.9878716898589543</v>
+      </c>
+      <c r="O11">
+        <v>-0.08893785232121422</v>
+      </c>
+      <c r="P11">
+        <v>0.9434415023397281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
-        <v>0.3156911318786987</v>
-      </c>
-      <c r="C11">
-        <v>0.5316663118556925</v>
-      </c>
-      <c r="D11">
-        <v>0.4995536060798581</v>
-      </c>
-      <c r="E11">
-        <v>0.8725937446729243</v>
-      </c>
-      <c r="F11">
-        <v>0.4022460221747549</v>
-      </c>
-      <c r="G11">
-        <v>0.8725937446729243</v>
-      </c>
-      <c r="H11">
-        <v>0.6641615200854969</v>
-      </c>
-      <c r="I11">
-        <v>0.6947419760589797</v>
-      </c>
-      <c r="K11">
-        <v>0.7412117367986283</v>
-      </c>
-      <c r="L11">
-        <v>0.8336859554814664</v>
-      </c>
-      <c r="M11">
-        <v>0.9331357193647628</v>
-      </c>
-      <c r="N11">
-        <v>0.8112095195381667</v>
-      </c>
-      <c r="O11">
-        <v>0.9878716898589543</v>
-      </c>
-      <c r="P11">
-        <v>-0.08893785232121422</v>
-      </c>
-      <c r="Q11">
-        <v>0.7055107084887891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
+      <c r="B12">
+        <v>0.4504715235490637</v>
+      </c>
+      <c r="C12">
+        <v>0.1065058266495047</v>
+      </c>
+      <c r="D12">
+        <v>0.8024250338176065</v>
+      </c>
+      <c r="E12">
+        <v>0.8704340848302159</v>
+      </c>
+      <c r="F12">
+        <v>0.8192306725276969</v>
+      </c>
+      <c r="G12">
+        <v>0.8704340848302159</v>
+      </c>
+      <c r="H12">
+        <v>0.7362427115208275</v>
+      </c>
+      <c r="I12">
+        <v>0.547311388340508</v>
+      </c>
+      <c r="J12">
+        <v>0.8571303529422168</v>
+      </c>
+      <c r="K12">
+        <v>0.9895991000054145</v>
+      </c>
+      <c r="L12">
+        <v>0.9980955420239869</v>
+      </c>
+      <c r="M12">
+        <v>0.9913285274887094</v>
+      </c>
+      <c r="N12">
+        <v>0.9976058584561329</v>
+      </c>
+      <c r="O12">
+        <v>0.3093548204387422</v>
+      </c>
+      <c r="P12">
+        <v>0.9693902206921076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B12">
-        <v>0.730095452585599</v>
-      </c>
-      <c r="C12">
-        <v>-0.3800856158123847</v>
-      </c>
-      <c r="D12">
-        <v>-0.6495139758478219</v>
-      </c>
-      <c r="E12">
-        <v>0.9012379599624353</v>
-      </c>
-      <c r="F12">
-        <v>0.9351830658845335</v>
-      </c>
-      <c r="G12">
-        <v>0.9012379599624353</v>
-      </c>
-      <c r="H12">
-        <v>0.8061167354644297</v>
-      </c>
-      <c r="I12">
-        <v>0.2835759027775327</v>
-      </c>
-      <c r="K12">
-        <v>0.7173694262254043</v>
-      </c>
-      <c r="L12">
-        <v>0.9814177113522136</v>
-      </c>
-      <c r="M12">
-        <v>0.993243412878869</v>
-      </c>
-      <c r="N12">
-        <v>0.9913285274887094</v>
-      </c>
-      <c r="O12">
-        <v>0.9976058584561329</v>
-      </c>
-      <c r="P12">
-        <v>0.3093548204387422</v>
-      </c>
-      <c r="Q12">
-        <v>0.4897739300172907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B13">
         <v>0.1691908154036529</v>
@@ -1092,228 +1119,225 @@
       <c r="I13">
         <v>0.6812012436262882</v>
       </c>
+      <c r="J13">
+        <v>0.8452559784929111</v>
+      </c>
       <c r="K13">
-        <v>0.8452559784929111</v>
+        <v>0.9029542960629434</v>
       </c>
       <c r="L13">
-        <v>0.9197547220163422</v>
+        <v>0.8639312289190071</v>
       </c>
       <c r="M13">
-        <v>0.8639312289190071</v>
+        <v>0.6711784517288597</v>
       </c>
       <c r="N13">
-        <v>0.6711784517288597</v>
+        <v>0.9659267629000615</v>
       </c>
       <c r="O13">
-        <v>0.9659267629000615</v>
+        <v>-0.228976975112574</v>
       </c>
       <c r="P13">
-        <v>-0.228976975112574</v>
-      </c>
-      <c r="Q13">
         <v>0.9150162885255297</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>0.6920540578389616</v>
+      </c>
+      <c r="C14">
+        <v>0.3146586747078748</v>
+      </c>
+      <c r="D14">
+        <v>0.872051951767041</v>
+      </c>
+      <c r="E14">
+        <v>0.9710887549404057</v>
+      </c>
+      <c r="F14">
+        <v>0.8533250595768441</v>
+      </c>
+      <c r="G14">
+        <v>0.9710887536106309</v>
+      </c>
+      <c r="H14">
+        <v>0.0602040568536601</v>
+      </c>
+      <c r="I14">
+        <v>0.5804224623706228</v>
+      </c>
+      <c r="J14">
+        <v>0.8050178697844713</v>
+      </c>
+      <c r="K14">
+        <v>0.4860100323954637</v>
+      </c>
+      <c r="L14">
+        <v>0.9914211367503515</v>
+      </c>
+      <c r="M14">
+        <v>0.9270922852150839</v>
+      </c>
+      <c r="N14">
+        <v>0.9905375035153677</v>
+      </c>
+      <c r="O14">
+        <v>0.4508046736193099</v>
+      </c>
+      <c r="P14">
+        <v>0.5796684933313271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
-        <v>-0.3989376596509349</v>
-      </c>
-      <c r="C14">
-        <v>0.9602833980169352</v>
-      </c>
-      <c r="D14">
-        <v>-0.9196591938791155</v>
-      </c>
-      <c r="E14">
-        <v>0.797835586220499</v>
-      </c>
-      <c r="F14">
-        <v>-0.5035267851865504</v>
-      </c>
-      <c r="G14">
-        <v>0.797835586220499</v>
-      </c>
-      <c r="H14">
-        <v>-0.9998156823321799</v>
-      </c>
-      <c r="I14">
-        <v>-0.4067692663742606</v>
-      </c>
-      <c r="J14">
-        <v>-1.467302264824925e-06</v>
-      </c>
-      <c r="K14">
-        <v>0.6504969970185409</v>
-      </c>
-      <c r="L14">
-        <v>-0.4118780928282629</v>
-      </c>
-      <c r="M14">
-        <v>0.9715206264363164</v>
-      </c>
-      <c r="N14">
-        <v>0.9270922852150839</v>
-      </c>
-      <c r="O14">
-        <v>0.9905375035153677</v>
-      </c>
-      <c r="P14">
-        <v>0.4508046736193099</v>
-      </c>
-      <c r="Q14">
-        <v>-0.7984687474261712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
+      <c r="B15">
+        <v>0.231090177161566</v>
+      </c>
+      <c r="E15">
+        <v>0.3260678670217882</v>
+      </c>
+      <c r="F15">
+        <v>0.2497031913905022</v>
+      </c>
+      <c r="G15">
+        <v>0.3260678670217882</v>
+      </c>
+      <c r="H15">
+        <v>-0.083187898590782</v>
+      </c>
+      <c r="I15">
+        <v>0.5204017417807324</v>
+      </c>
+      <c r="J15">
+        <v>0.7245838085311925</v>
+      </c>
+      <c r="K15">
+        <v>0.8932453145653164</v>
+      </c>
+      <c r="L15">
+        <v>0.9835883563693244</v>
+      </c>
+      <c r="M15">
+        <v>0.9951938063599536</v>
+      </c>
+      <c r="N15">
+        <v>0.892924252868144</v>
+      </c>
+      <c r="O15">
+        <v>0.1763232532186849</v>
+      </c>
+      <c r="P15">
+        <v>0.9058222107814241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
-        <v>0.1240743646551061</v>
-      </c>
-      <c r="E15">
-        <v>0.2368932892871047</v>
-      </c>
-      <c r="F15">
-        <v>0.1472965099577787</v>
-      </c>
-      <c r="G15">
-        <v>0.2368932892871047</v>
-      </c>
-      <c r="H15">
-        <v>-0.1655866767678346</v>
-      </c>
-      <c r="I15">
-        <v>0.4007306120939584</v>
-      </c>
-      <c r="K15">
-        <v>0.8622651806332393</v>
-      </c>
-      <c r="L15">
-        <v>0.9328421136144459</v>
-      </c>
-      <c r="M15">
-        <v>0.9837073129435964</v>
-      </c>
-      <c r="N15">
-        <v>0.9951938063599536</v>
-      </c>
-      <c r="O15">
-        <v>0.892924252868144</v>
-      </c>
-      <c r="P15">
-        <v>0.1763232532186849</v>
-      </c>
-      <c r="Q15">
-        <v>0.8850109206510278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+      <c r="B16">
+        <v>0.8319035011403038</v>
+      </c>
+      <c r="C16">
+        <v>0.6570880445763142</v>
+      </c>
+      <c r="D16">
+        <v>0.880017356836454</v>
+      </c>
+      <c r="E16">
+        <v>0.8786327795440722</v>
+      </c>
+      <c r="F16">
+        <v>0.8505264290061872</v>
+      </c>
+      <c r="G16">
+        <v>0.8786327795440722</v>
+      </c>
+      <c r="H16">
+        <v>0.3401017531851734</v>
+      </c>
+      <c r="I16">
+        <v>0.7468003033973526</v>
+      </c>
+      <c r="J16">
+        <v>0.7583158344142473</v>
+      </c>
+      <c r="K16">
+        <v>0.9085964965302056</v>
+      </c>
+      <c r="L16">
+        <v>0.9689037921119458</v>
+      </c>
+      <c r="M16">
+        <v>0.9468475114294649</v>
+      </c>
+      <c r="N16">
+        <v>0.9554590941334685</v>
+      </c>
+      <c r="O16">
+        <v>-0.2833816138076322</v>
+      </c>
+      <c r="P16">
+        <v>0.8270748573511923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
-        <v>0.09516728947602338</v>
-      </c>
-      <c r="C16">
-        <v>0.09906836538839317</v>
-      </c>
-      <c r="D16">
-        <v>0.843001073941698</v>
-      </c>
-      <c r="E16">
-        <v>0.7240860334323345</v>
-      </c>
-      <c r="F16">
-        <v>0.3966213383371571</v>
-      </c>
-      <c r="G16">
-        <v>0.7240860334323345</v>
-      </c>
-      <c r="H16">
-        <v>0.1622072510424879</v>
-      </c>
-      <c r="I16">
-        <v>0.3348038782121263</v>
-      </c>
-      <c r="K16">
-        <v>0.4541689209920957</v>
-      </c>
-      <c r="L16">
-        <v>0.5726372097392856</v>
-      </c>
-      <c r="M16">
-        <v>0.3820596526220825</v>
-      </c>
-      <c r="N16">
-        <v>0.9468475114294649</v>
-      </c>
-      <c r="O16">
-        <v>0.9554590941334685</v>
-      </c>
-      <c r="P16">
-        <v>-0.2833816138076322</v>
-      </c>
-      <c r="Q16">
-        <v>0.6803764239401239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+      <c r="B17">
+        <v>0.5437811111102386</v>
+      </c>
+      <c r="C17">
+        <v>0.1394647728595124</v>
+      </c>
+      <c r="D17">
+        <v>0.7145230228780746</v>
+      </c>
+      <c r="E17">
+        <v>0.9098682113851265</v>
+      </c>
+      <c r="F17">
+        <v>0.6234521156309623</v>
+      </c>
+      <c r="G17">
+        <v>0.9098682113851265</v>
+      </c>
+      <c r="H17">
+        <v>0.6281511920858145</v>
+      </c>
+      <c r="I17">
+        <v>0.6828094684564511</v>
+      </c>
+      <c r="J17">
+        <v>0.6411152091580158</v>
+      </c>
+      <c r="K17">
+        <v>0.9465819174254405</v>
+      </c>
+      <c r="L17">
+        <v>0.9481566263822319</v>
+      </c>
+      <c r="M17">
+        <v>0.9862245410510145</v>
+      </c>
+      <c r="N17">
+        <v>0.930119202154301</v>
+      </c>
+      <c r="O17">
+        <v>0.03516212367610137</v>
+      </c>
+      <c r="P17">
+        <v>0.9542330189059109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B17">
-        <v>0.3354985147058874</v>
-      </c>
-      <c r="C17">
-        <v>0.0976586902631536</v>
-      </c>
-      <c r="D17">
-        <v>0.5233133455144814</v>
-      </c>
-      <c r="E17">
-        <v>0.4307495189412885</v>
-      </c>
-      <c r="F17">
-        <v>0.2855692451077186</v>
-      </c>
-      <c r="G17">
-        <v>0.4307495189412885</v>
-      </c>
-      <c r="H17">
-        <v>0.2145038627347785</v>
-      </c>
-      <c r="I17">
-        <v>0.159671259483243</v>
-      </c>
-      <c r="K17">
-        <v>0.5791226532455345</v>
-      </c>
-      <c r="L17">
-        <v>0.325998624056951</v>
-      </c>
-      <c r="M17">
-        <v>0.6396170291801565</v>
-      </c>
-      <c r="N17">
-        <v>0.9862245410510145</v>
-      </c>
-      <c r="O17">
-        <v>0.930119202154301</v>
-      </c>
-      <c r="P17">
-        <v>0.03516212367610137</v>
-      </c>
-      <c r="Q17">
-        <v>0.3336428780903783</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B18">
         <v>0.2396111038937715</v>
@@ -1339,31 +1363,31 @@
       <c r="I18">
         <v>0.09146922938680621</v>
       </c>
+      <c r="J18">
+        <v>0.7108738003722377</v>
+      </c>
       <c r="K18">
-        <v>0.7108738003722377</v>
+        <v>0.921508204695177</v>
       </c>
       <c r="L18">
-        <v>0.9346458789588794</v>
+        <v>0.9581552278692563</v>
       </c>
       <c r="M18">
-        <v>0.9581552278692563</v>
+        <v>0.9533506273377378</v>
       </c>
       <c r="N18">
-        <v>0.9533506273377378</v>
+        <v>0.9330761197670617</v>
       </c>
       <c r="O18">
-        <v>0.9368353152380255</v>
+        <v>-0.1879629468325832</v>
       </c>
       <c r="P18">
-        <v>-0.1879629468325832</v>
-      </c>
-      <c r="Q18">
         <v>0.933298728709121</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>0.1848169196792218</v>
@@ -1378,92 +1402,92 @@
         <v>0.8199182322095531</v>
       </c>
       <c r="F19">
-        <v>0.3426901903363834</v>
+        <v>0.3434864836596906</v>
       </c>
       <c r="G19">
-        <v>0.7310597497426922</v>
+        <v>0.8199182322095531</v>
       </c>
       <c r="H19">
         <v>-0.521950641127477</v>
       </c>
       <c r="I19">
-        <v>0.6866152091973073</v>
+        <v>0.6027769459622589</v>
+      </c>
+      <c r="J19">
+        <v>0.8502856914104072</v>
       </c>
       <c r="K19">
-        <v>0.8502856914104072</v>
+        <v>0.9014068075238518</v>
       </c>
       <c r="L19">
-        <v>0.9149262651571622</v>
+        <v>0.9439791206163712</v>
       </c>
       <c r="M19">
-        <v>0.9439791206163712</v>
+        <v>0.905022035519306</v>
       </c>
       <c r="N19">
-        <v>0.905022035519306</v>
+        <v>0.9502712527989521</v>
       </c>
       <c r="O19">
-        <v>0.9502712527989521</v>
+        <v>-0.3484337833032519</v>
       </c>
       <c r="P19">
-        <v>-0.3484337833032519</v>
-      </c>
-      <c r="Q19">
-        <v>0.9003477406531255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8413864154384741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>0.64713378195914</v>
+      </c>
+      <c r="C20">
+        <v>0.5992008574851261</v>
+      </c>
+      <c r="D20">
+        <v>0.8191259054561028</v>
+      </c>
+      <c r="E20">
+        <v>0.9629194525315955</v>
+      </c>
+      <c r="F20">
+        <v>0.9325926497977104</v>
+      </c>
+      <c r="G20">
+        <v>0.9629194525315955</v>
+      </c>
+      <c r="H20">
+        <v>-0.05405340170850968</v>
+      </c>
+      <c r="I20">
+        <v>0.9056421741496982</v>
+      </c>
+      <c r="J20">
+        <v>0.8236422188253235</v>
+      </c>
+      <c r="K20">
+        <v>0.7987669809458646</v>
+      </c>
+      <c r="L20">
+        <v>0.7917978698461148</v>
+      </c>
+      <c r="M20">
+        <v>0.8589298939506448</v>
+      </c>
+      <c r="N20">
+        <v>0.847252904486111</v>
+      </c>
+      <c r="O20">
+        <v>-0.2796766289349856</v>
+      </c>
+      <c r="P20">
+        <v>0.9275557772520652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B20">
-        <v>0.1429066019824268</v>
-      </c>
-      <c r="C20">
-        <v>0.5205289900981325</v>
-      </c>
-      <c r="D20">
-        <v>0.6453889425417032</v>
-      </c>
-      <c r="E20">
-        <v>0.9712596101987008</v>
-      </c>
-      <c r="F20">
-        <v>0.4372398243626561</v>
-      </c>
-      <c r="G20">
-        <v>0.7792796055171858</v>
-      </c>
-      <c r="H20">
-        <v>0.1128576527665385</v>
-      </c>
-      <c r="I20">
-        <v>0.9233300584504456</v>
-      </c>
-      <c r="K20">
-        <v>0.8307608270621499</v>
-      </c>
-      <c r="L20">
-        <v>0.7534372861792514</v>
-      </c>
-      <c r="M20">
-        <v>0.7740649372859166</v>
-      </c>
-      <c r="N20">
-        <v>0.8589298939506448</v>
-      </c>
-      <c r="O20">
-        <v>0.847252904486111</v>
-      </c>
-      <c r="P20">
-        <v>-0.2796766289349856</v>
-      </c>
-      <c r="Q20">
-        <v>0.7057505847154528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B21">
         <v>0.08504526884550263</v>
@@ -1489,31 +1513,31 @@
       <c r="I21">
         <v>0.5329906813114034</v>
       </c>
+      <c r="J21">
+        <v>0.4246033673641154</v>
+      </c>
       <c r="K21">
-        <v>0.4246033673641154</v>
+        <v>0.9473282910061483</v>
       </c>
       <c r="L21">
-        <v>0.9522581380707185</v>
+        <v>0.986576109378987</v>
       </c>
       <c r="M21">
-        <v>0.986576109378987</v>
+        <v>0.9921004361380301</v>
       </c>
       <c r="N21">
-        <v>0.9921004361380301</v>
+        <v>0.9591288013240289</v>
       </c>
       <c r="O21">
-        <v>0.9591288013240289</v>
+        <v>-0.4572899846348844</v>
       </c>
       <c r="P21">
-        <v>-0.4572899846348844</v>
-      </c>
-      <c r="Q21">
         <v>0.9317872831077985</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>0.3138187883135162</v>
@@ -1539,31 +1563,31 @@
       <c r="I22">
         <v>0.6720637489325301</v>
       </c>
+      <c r="J22">
+        <v>0.9092898986661563</v>
+      </c>
       <c r="K22">
-        <v>0.9092898986661563</v>
+        <v>0.9544699964666081</v>
       </c>
       <c r="L22">
-        <v>0.9609705974510641</v>
+        <v>0.9965394169781659</v>
       </c>
       <c r="M22">
-        <v>0.9965394169781659</v>
+        <v>0.9838186160812422</v>
       </c>
       <c r="N22">
-        <v>0.9838186160812422</v>
+        <v>0.9972883363587083</v>
       </c>
       <c r="O22">
-        <v>0.9972883363587083</v>
+        <v>-0.5490177791604365</v>
       </c>
       <c r="P22">
-        <v>-0.5749329377436432</v>
-      </c>
-      <c r="Q22">
         <v>0.8740862777080575</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>0.5709254750926415</v>
@@ -1589,184 +1613,181 @@
       <c r="I23">
         <v>0.5994998115505819</v>
       </c>
+      <c r="J23">
+        <v>0.832465916921856</v>
+      </c>
       <c r="K23">
-        <v>0.832465916921856</v>
+        <v>0.9467314210760415</v>
       </c>
       <c r="L23">
-        <v>0.9561960442576271</v>
+        <v>0.9875802954059428</v>
       </c>
       <c r="M23">
-        <v>0.9875802954059428</v>
+        <v>0.990013149305771</v>
       </c>
       <c r="N23">
-        <v>0.990013149305771</v>
+        <v>0.9678014264397492</v>
       </c>
       <c r="O23">
-        <v>0.9678014264397492</v>
+        <v>-0.292412336132054</v>
       </c>
       <c r="P23">
-        <v>-0.292412336132054</v>
-      </c>
-      <c r="Q23">
         <v>0.9128922453922368</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>0.641818390099696</v>
+      </c>
+      <c r="C24">
+        <v>0.8753944262414862</v>
+      </c>
+      <c r="D24">
+        <v>0.7460561578565377</v>
+      </c>
+      <c r="E24">
+        <v>0.9117380150568267</v>
+      </c>
+      <c r="F24">
+        <v>0.5582692658977679</v>
+      </c>
+      <c r="G24">
+        <v>0.9117380150568267</v>
+      </c>
+      <c r="H24">
+        <v>0.5866200674891546</v>
+      </c>
+      <c r="I24">
+        <v>0.8028442712645716</v>
+      </c>
+      <c r="J24">
+        <v>0.7569417853936361</v>
+      </c>
+      <c r="K24">
+        <v>0.9865990544374189</v>
+      </c>
+      <c r="L24">
+        <v>0.9947357902647636</v>
+      </c>
+      <c r="M24">
+        <v>0.9922241643816888</v>
+      </c>
+      <c r="N24">
+        <v>0.9989529814238183</v>
+      </c>
+      <c r="O24">
+        <v>-0.2460862754081717</v>
+      </c>
+      <c r="P24">
+        <v>0.9728283627904303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
-        <v>0.7680017790246824</v>
-      </c>
-      <c r="C24">
-        <v>0.7277387715141999</v>
-      </c>
-      <c r="D24">
-        <v>0.8271134865886371</v>
-      </c>
-      <c r="E24">
-        <v>0.7774525555839725</v>
-      </c>
-      <c r="F24">
-        <v>0.2597779541107338</v>
-      </c>
-      <c r="G24">
-        <v>0.7774525555839725</v>
-      </c>
-      <c r="H24">
-        <v>0.5813224141804415</v>
-      </c>
-      <c r="I24">
-        <v>0.5348848868524313</v>
-      </c>
-      <c r="K24">
-        <v>0.5837493608149521</v>
-      </c>
-      <c r="L24">
-        <v>0.9351230863662872</v>
-      </c>
-      <c r="M24">
-        <v>0.9797956118269519</v>
-      </c>
-      <c r="N24">
-        <v>0.9922241643816888</v>
-      </c>
-      <c r="O24">
-        <v>0.9989529814238183</v>
-      </c>
-      <c r="P24">
-        <v>-0.2460862754081717</v>
-      </c>
-      <c r="Q24">
-        <v>0.658604164138231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
+      <c r="B25">
+        <v>0.3291105177484931</v>
+      </c>
+      <c r="C25">
+        <v>0.8350099176463442</v>
+      </c>
+      <c r="D25">
+        <v>0.8372582096663644</v>
+      </c>
+      <c r="E25">
+        <v>0.9405287589420686</v>
+      </c>
+      <c r="F25">
+        <v>0.4127645670049453</v>
+      </c>
+      <c r="G25">
+        <v>0.9405287589420686</v>
+      </c>
+      <c r="H25">
+        <v>0.5678371109918831</v>
+      </c>
+      <c r="I25">
+        <v>0.6609211045017757</v>
+      </c>
+      <c r="J25">
+        <v>0.5902080580747695</v>
+      </c>
+      <c r="K25">
+        <v>0.7119440408090981</v>
+      </c>
+      <c r="L25">
+        <v>0.941202479827711</v>
+      </c>
+      <c r="M25">
+        <v>0.8605727712467265</v>
+      </c>
+      <c r="N25">
+        <v>0.9423697879730505</v>
+      </c>
+      <c r="O25">
+        <v>-0.1909787406795494</v>
+      </c>
+      <c r="P25">
+        <v>0.890877268076494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
-        <v>0.06287172124904666</v>
-      </c>
-      <c r="C25">
-        <v>0.8477662956980513</v>
-      </c>
-      <c r="D25">
-        <v>0.9216997179388408</v>
-      </c>
-      <c r="E25">
-        <v>0.7106505936134518</v>
-      </c>
-      <c r="F25">
-        <v>0.03058970069570319</v>
-      </c>
-      <c r="G25">
-        <v>0.7106505936134518</v>
-      </c>
-      <c r="H25">
-        <v>0.534502061042212</v>
-      </c>
-      <c r="I25">
-        <v>0.6556161744162265</v>
-      </c>
-      <c r="K25">
-        <v>0.4351152068835552</v>
-      </c>
-      <c r="L25">
-        <v>0.414002954659727</v>
-      </c>
-      <c r="M25">
-        <v>0.7756481774027676</v>
-      </c>
-      <c r="N25">
-        <v>0.8605727712467265</v>
-      </c>
-      <c r="O25">
-        <v>0.9423697879730505</v>
-      </c>
-      <c r="P25">
-        <v>-0.1909787406795494</v>
-      </c>
-      <c r="Q25">
-        <v>0.7979830366365602</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
+      <c r="B26">
+        <v>0.2669894526941335</v>
+      </c>
+      <c r="C26">
+        <v>0.3421153376626039</v>
+      </c>
+      <c r="D26">
+        <v>0.1624287860149943</v>
+      </c>
+      <c r="E26">
+        <v>0.7015194168140676</v>
+      </c>
+      <c r="F26">
+        <v>0.1930358312117367</v>
+      </c>
+      <c r="G26">
+        <v>0.7329736351775769</v>
+      </c>
+      <c r="H26">
+        <v>0.6550950412960671</v>
+      </c>
+      <c r="I26">
+        <v>0.859382001995773</v>
+      </c>
+      <c r="J26">
+        <v>0.7056031268622119</v>
+      </c>
+      <c r="K26">
+        <v>0.9017697815111083</v>
+      </c>
+      <c r="L26">
+        <v>0.8697659544301436</v>
+      </c>
+      <c r="M26">
+        <v>0.8899693468692842</v>
+      </c>
+      <c r="N26">
+        <v>0.9332998711461533</v>
+      </c>
+      <c r="O26">
+        <v>-0.2963984663992305</v>
+      </c>
+      <c r="P26">
+        <v>0.8506226172623669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B26">
-        <v>0.3092217694144044</v>
-      </c>
-      <c r="C26">
-        <v>-0.004077199402339872</v>
-      </c>
-      <c r="D26">
-        <v>0.1599641284940158</v>
-      </c>
-      <c r="E26">
-        <v>0.4689854865366671</v>
-      </c>
-      <c r="F26">
-        <v>0.3499395520188861</v>
-      </c>
-      <c r="G26">
-        <v>0.5669563178848704</v>
-      </c>
-      <c r="H26">
-        <v>0.5853959123854096</v>
-      </c>
-      <c r="I26">
-        <v>0.3815427596954414</v>
-      </c>
-      <c r="J26">
-        <v>0.3462015832206377</v>
-      </c>
-      <c r="K26">
-        <v>0.2237293232895257</v>
-      </c>
-      <c r="L26">
-        <v>0.6666036631670887</v>
-      </c>
-      <c r="M26">
-        <v>0.3223024398049281</v>
-      </c>
-      <c r="N26">
-        <v>0.8899693468692842</v>
-      </c>
-      <c r="O26">
-        <v>0.9332998711461533</v>
-      </c>
-      <c r="P26">
-        <v>-0.2963984663992305</v>
-      </c>
-      <c r="Q26">
-        <v>0.8604443979080306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B27">
         <v>0.7899917445913409</v>
@@ -1789,126 +1810,123 @@
       <c r="I27">
         <v>0.5045814676887089</v>
       </c>
+      <c r="J27">
+        <v>0.5715318280513489</v>
+      </c>
       <c r="K27">
-        <v>0.5715318280513489</v>
+        <v>0.9117744714505113</v>
       </c>
       <c r="L27">
-        <v>0.933416508269902</v>
+        <v>0.9986451922185843</v>
       </c>
       <c r="M27">
-        <v>0.9986451922185843</v>
+        <v>0.9953556715835883</v>
       </c>
       <c r="N27">
-        <v>0.9953556715835883</v>
-      </c>
-      <c r="O27">
         <v>0.9989021483275645</v>
       </c>
-      <c r="Q27">
+      <c r="P27">
         <v>0.9609739447871372</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>0.3651057730919365</v>
+      </c>
+      <c r="C28">
+        <v>-0.1258988597635622</v>
+      </c>
+      <c r="D28">
+        <v>0.6880487071368825</v>
+      </c>
+      <c r="E28">
+        <v>0.8945656935459092</v>
+      </c>
+      <c r="F28">
+        <v>0.4090562859083025</v>
+      </c>
+      <c r="G28">
+        <v>0.9098840362618863</v>
+      </c>
+      <c r="H28">
+        <v>0.4672139510975949</v>
+      </c>
+      <c r="I28">
+        <v>0.4311947065623722</v>
+      </c>
+      <c r="J28">
+        <v>-0.2071865884519428</v>
+      </c>
+      <c r="K28">
+        <v>0.544330912062598</v>
+      </c>
+      <c r="L28">
+        <v>0.7359931335025059</v>
+      </c>
+      <c r="M28">
+        <v>0.9685508932965692</v>
+      </c>
+      <c r="N28">
+        <v>0.9640664493654204</v>
+      </c>
+      <c r="O28">
+        <v>-0.4392746111447897</v>
+      </c>
+      <c r="P28">
+        <v>0.9286333144763291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28">
-        <v>0.04617246191264282</v>
-      </c>
-      <c r="C28">
-        <v>-0.176884226332719</v>
-      </c>
-      <c r="D28">
-        <v>0.7203097086604919</v>
-      </c>
-      <c r="E28">
-        <v>0.5324635482937025</v>
-      </c>
-      <c r="F28">
-        <v>0.006426883006004984</v>
-      </c>
-      <c r="G28">
-        <v>0.7424307083500405</v>
-      </c>
-      <c r="H28">
-        <v>0.3624030498542293</v>
-      </c>
-      <c r="I28">
-        <v>0.6931598131764137</v>
-      </c>
-      <c r="J28">
-        <v>-0.2251944669763172</v>
-      </c>
-      <c r="K28">
-        <v>-0.2127443632176092</v>
-      </c>
-      <c r="L28">
-        <v>0.2936882079827202</v>
-      </c>
-      <c r="M28">
-        <v>0.576952489431536</v>
-      </c>
-      <c r="N28">
-        <v>0.9685508932965692</v>
-      </c>
-      <c r="O28">
-        <v>0.9640664493654204</v>
-      </c>
-      <c r="P28">
-        <v>-0.4392746111447897</v>
-      </c>
-      <c r="Q28">
-        <v>0.9126059248257973</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B29">
-        <v>-0.3769548015620373</v>
+        <v>0.8908502593636624</v>
       </c>
       <c r="C29">
-        <v>-0.5565294493844836</v>
+        <v>0.06076436509972403</v>
       </c>
       <c r="D29">
-        <v>-0.4926052030443257</v>
+        <v>0.8064773856753163</v>
       </c>
       <c r="E29">
-        <v>-0.2000781860631388</v>
+        <v>0.9678286336185763</v>
       </c>
       <c r="F29">
-        <v>-0.7107708097153794</v>
+        <v>0.9050165893872288</v>
       </c>
       <c r="G29">
-        <v>-0.2000781860631388</v>
+        <v>0.9678286336185763</v>
       </c>
       <c r="H29">
-        <v>0.06208247793093141</v>
+        <v>0.8984101095887733</v>
       </c>
       <c r="I29">
-        <v>-0.3748088074701293</v>
+        <v>0.3846384380131167</v>
+      </c>
+      <c r="J29">
+        <v>0.4452485711671594</v>
       </c>
       <c r="K29">
-        <v>0.3685093661775579</v>
+        <v>0.9786857894625616</v>
       </c>
       <c r="L29">
-        <v>0.8039901793315977</v>
+        <v>0.9807352511319444</v>
       </c>
       <c r="M29">
-        <v>0.9623238152382414</v>
+        <v>0.965071035811386</v>
       </c>
       <c r="N29">
-        <v>0.965071035811386</v>
+        <v>0.9305780566971272</v>
       </c>
       <c r="O29">
-        <v>0.9305780566971272</v>
+        <v>-0.548074454660868</v>
       </c>
       <c r="P29">
-        <v>-0.548074454660868</v>
-      </c>
-      <c r="Q29">
-        <v>0.9819805060619667</v>
+        <v>0.6071654835118616</v>
       </c>
     </row>
   </sheetData>

--- a/ACF.xlsx
+++ b/ACF.xlsx
@@ -558,49 +558,49 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.668348164123549</v>
+        <v>0.6642425495127974</v>
       </c>
       <c r="C2">
-        <v>0.02933085308864603</v>
+        <v>-0.003684740573406552</v>
       </c>
       <c r="D2">
-        <v>0.8685121403305666</v>
+        <v>0.866376685484451</v>
       </c>
       <c r="E2">
-        <v>0.9014092487231534</v>
+        <v>0.882245688153055</v>
       </c>
       <c r="F2">
-        <v>0.8637477858201976</v>
+        <v>0.8569665925643351</v>
       </c>
       <c r="G2">
-        <v>0.9014092487231534</v>
+        <v>0.882245688153055</v>
       </c>
       <c r="H2">
         <v>0.7465978377944303</v>
       </c>
       <c r="I2">
-        <v>0.8011508851870756</v>
+        <v>0.7903038447006332</v>
       </c>
       <c r="J2">
-        <v>0.8197193807402814</v>
+        <v>0.8158647316265517</v>
       </c>
       <c r="K2">
-        <v>0.9751926075304697</v>
+        <v>0.9745584811026139</v>
       </c>
       <c r="L2">
-        <v>0.9942754357907101</v>
+        <v>0.9940101826235508</v>
       </c>
       <c r="M2">
-        <v>0.5220110950502688</v>
+        <v>0.5104244615557426</v>
       </c>
       <c r="N2">
-        <v>0.9753940591996851</v>
+        <v>0.9734598779555571</v>
       </c>
       <c r="O2">
         <v>-0.2757999114704237</v>
       </c>
       <c r="P2">
-        <v>0.913213693578669</v>
+        <v>0.9014499420296344</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -608,43 +608,43 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.7458781115464359</v>
+        <v>0.7354045940243251</v>
       </c>
       <c r="E3">
-        <v>0.8202481609720529</v>
+        <v>0.8118612210221835</v>
       </c>
       <c r="F3">
-        <v>0.8169193878084567</v>
+        <v>0.8120426802113362</v>
       </c>
       <c r="G3">
-        <v>0.8202481609720529</v>
+        <v>0.8118612210221835</v>
       </c>
       <c r="H3">
         <v>-0.50202522212425</v>
       </c>
       <c r="I3">
-        <v>0.6887980000890064</v>
+        <v>0.7458492477359242</v>
       </c>
       <c r="J3">
-        <v>0.7833671622556236</v>
+        <v>0.7925555383229308</v>
       </c>
       <c r="K3">
-        <v>0.8494917904185264</v>
+        <v>0.8464242505839242</v>
       </c>
       <c r="L3">
-        <v>0.9039422953987416</v>
+        <v>0.9000885397823011</v>
       </c>
       <c r="M3">
-        <v>0.9620706843183601</v>
+        <v>0.9611096284500212</v>
       </c>
       <c r="N3">
-        <v>0.8856417477759115</v>
+        <v>0.8825169237517043</v>
       </c>
       <c r="O3">
         <v>0.04511391012947295</v>
       </c>
       <c r="P3">
-        <v>0.8192941961767182</v>
+        <v>0.8169933105592788</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -696,49 +696,49 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.2185399490335703</v>
+        <v>0.2165573126381087</v>
       </c>
       <c r="C5">
-        <v>0.0260435202260734</v>
+        <v>0.02590065604793905</v>
       </c>
       <c r="D5">
-        <v>0.2641123419778137</v>
+        <v>0.2598979926540397</v>
       </c>
       <c r="E5">
-        <v>0.3652973412240644</v>
+        <v>0.3546721165246521</v>
       </c>
       <c r="F5">
-        <v>0.210149478693505</v>
+        <v>0.2034028291932935</v>
       </c>
       <c r="G5">
-        <v>0.3652973412240644</v>
+        <v>0.3546721165246521</v>
       </c>
       <c r="H5">
         <v>0.007346956063191486</v>
       </c>
       <c r="I5">
-        <v>0.5949057338511495</v>
+        <v>0.5952606934879768</v>
       </c>
       <c r="J5">
-        <v>0.7438817886408408</v>
+        <v>0.7420496226194007</v>
       </c>
       <c r="K5">
-        <v>0.925492590383315</v>
+        <v>0.9240390440115449</v>
       </c>
       <c r="L5">
-        <v>0.9348463482002226</v>
+        <v>0.9299922279443724</v>
       </c>
       <c r="M5">
-        <v>0.878783603857814</v>
+        <v>0.8733264905887702</v>
       </c>
       <c r="N5">
-        <v>0.9176616528891128</v>
+        <v>0.9133092854879549</v>
       </c>
       <c r="O5">
         <v>0.06412551448105658</v>
       </c>
       <c r="P5">
-        <v>0.9145014706170788</v>
+        <v>0.9099000241142832</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -746,49 +746,49 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.5750034723963036</v>
+        <v>0.5692702444554676</v>
       </c>
       <c r="C6">
-        <v>0.4221862639550298</v>
+        <v>0.4222493142575217</v>
       </c>
       <c r="D6">
-        <v>0.6051891891696365</v>
+        <v>0.5820439679820361</v>
       </c>
       <c r="E6">
-        <v>0.8018183368478601</v>
+        <v>0.7870584566253356</v>
       </c>
       <c r="F6">
-        <v>0.5971037170540308</v>
+        <v>0.5909000260924849</v>
       </c>
       <c r="G6">
-        <v>0.8018183368478601</v>
+        <v>0.7870584566253356</v>
       </c>
       <c r="H6">
         <v>-0.246551893237047</v>
       </c>
       <c r="I6">
-        <v>0.682565048199167</v>
+        <v>0.6881953600908716</v>
       </c>
       <c r="J6">
-        <v>0.7264176206951368</v>
+        <v>0.7287668823601626</v>
       </c>
       <c r="K6">
-        <v>0.8709561567856801</v>
+        <v>0.8634721070603919</v>
       </c>
       <c r="L6">
-        <v>0.9881990235424727</v>
+        <v>0.9876555383521536</v>
       </c>
       <c r="M6">
-        <v>0.9898000876438806</v>
+        <v>0.9893707748234242</v>
       </c>
       <c r="N6">
-        <v>0.9808891188911691</v>
+        <v>0.9799950307469238</v>
       </c>
       <c r="O6">
         <v>-0.4209194120680486</v>
       </c>
       <c r="P6">
-        <v>0.9632981463698943</v>
+        <v>0.9615498675475207</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -796,49 +796,49 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.9225031121643943</v>
+        <v>0.92153866909458</v>
       </c>
       <c r="C7">
-        <v>0.9131183244450838</v>
+        <v>0.9047365015570896</v>
       </c>
       <c r="D7">
-        <v>0.9251554004815411</v>
+        <v>0.9234041830501465</v>
       </c>
       <c r="E7">
-        <v>0.9069834789058124</v>
+        <v>0.8974002569299196</v>
       </c>
       <c r="F7">
-        <v>0.7696755067702535</v>
+        <v>0.7649104326926505</v>
       </c>
       <c r="G7">
-        <v>0.9069834789058124</v>
+        <v>0.8974002569299196</v>
       </c>
       <c r="H7">
         <v>0.6868593461229804</v>
       </c>
       <c r="I7">
-        <v>0.7320374550375456</v>
+        <v>0.7321306599182245</v>
       </c>
       <c r="J7">
-        <v>0.9450414071467279</v>
+        <v>0.9409134573168717</v>
       </c>
       <c r="K7">
-        <v>0.974001851074743</v>
+        <v>0.9731839668618049</v>
       </c>
       <c r="L7">
-        <v>0.9980215716657347</v>
+        <v>0.997926152629635</v>
       </c>
       <c r="M7">
-        <v>0.99298106987496</v>
+        <v>0.9925275026815709</v>
       </c>
       <c r="N7">
-        <v>0.9977643395943285</v>
+        <v>0.9976009160742981</v>
       </c>
       <c r="O7">
         <v>-0.5666616791832572</v>
       </c>
       <c r="P7">
-        <v>0.9941630641116691</v>
+        <v>0.9938369734540311</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -846,49 +846,49 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0.4174699149294094</v>
+        <v>0.4039523517526901</v>
       </c>
       <c r="C8">
-        <v>0.6144396597296246</v>
+        <v>0.5761977870554568</v>
       </c>
       <c r="D8">
-        <v>0.476346420760533</v>
+        <v>0.4706602064343353</v>
       </c>
       <c r="E8">
-        <v>0.491784366249605</v>
+        <v>0.4911723453104085</v>
       </c>
       <c r="F8">
-        <v>0.4152330417110652</v>
+        <v>0.4156282916797057</v>
       </c>
       <c r="G8">
-        <v>0.491784366249605</v>
+        <v>0.4911723453104085</v>
       </c>
       <c r="H8">
         <v>-0.3732666126589452</v>
       </c>
       <c r="I8">
-        <v>0.7685130187950918</v>
+        <v>0.7141643948621667</v>
       </c>
       <c r="J8">
-        <v>0.9134935510288835</v>
+        <v>0.9114008794136887</v>
       </c>
       <c r="K8">
-        <v>0.9752139610409719</v>
+        <v>0.9742604217437201</v>
       </c>
       <c r="L8">
-        <v>0.9956631708787353</v>
+        <v>0.9954818358798709</v>
       </c>
       <c r="M8">
-        <v>0.8795536029291838</v>
+        <v>0.8741452565897652</v>
       </c>
       <c r="N8">
-        <v>0.9980290709931552</v>
+        <v>0.9979985858753662</v>
       </c>
       <c r="O8">
         <v>-0.4911648847323909</v>
       </c>
       <c r="P8">
-        <v>0.9055613348061332</v>
+        <v>0.9020732885764973</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -923,7 +923,7 @@
         <v>0.6204186871345118</v>
       </c>
       <c r="K9">
-        <v>0.979734774971146</v>
+        <v>0.9799700424303009</v>
       </c>
       <c r="L9">
         <v>0.9950049218074797</v>
@@ -964,7 +964,7 @@
         <v>0.7607197150146894</v>
       </c>
       <c r="H10">
-        <v>0.4112076795944467</v>
+        <v>0.4360259026580037</v>
       </c>
       <c r="I10">
         <v>0.636885727946908</v>
@@ -996,49 +996,49 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>0.7729288795902972</v>
+        <v>0.7722853115973911</v>
       </c>
       <c r="C11">
-        <v>0.7893517787186675</v>
+        <v>0.7889777532960468</v>
       </c>
       <c r="D11">
-        <v>0.807445436871376</v>
+        <v>0.8037270055957029</v>
       </c>
       <c r="E11">
-        <v>0.8434326215009282</v>
+        <v>0.836562743079921</v>
       </c>
       <c r="F11">
-        <v>0.7468150006052745</v>
+        <v>0.7449649845134269</v>
       </c>
       <c r="G11">
-        <v>0.8434326215009282</v>
+        <v>0.836562743079921</v>
       </c>
       <c r="H11">
         <v>0.5935410463640532</v>
       </c>
       <c r="I11">
-        <v>0.5984526562596381</v>
+        <v>0.6174468107755809</v>
       </c>
       <c r="J11">
-        <v>0.8536431248562228</v>
+        <v>0.8527482555716871</v>
       </c>
       <c r="K11">
-        <v>0.9545206505557797</v>
+        <v>0.9534480506314</v>
       </c>
       <c r="L11">
-        <v>0.9772287963046613</v>
+        <v>0.9769582893260982</v>
       </c>
       <c r="M11">
-        <v>0.8112095195381667</v>
+        <v>0.8090490683713183</v>
       </c>
       <c r="N11">
-        <v>0.9878716898589543</v>
+        <v>0.9876764274298402</v>
       </c>
       <c r="O11">
         <v>-0.08893785232121422</v>
       </c>
       <c r="P11">
-        <v>0.9434415023397281</v>
+        <v>0.9396171324846339</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1046,49 +1046,49 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>0.4504715235490637</v>
+        <v>0.4300690531603212</v>
       </c>
       <c r="C12">
-        <v>0.1065058266495047</v>
+        <v>0.1056410461943688</v>
       </c>
       <c r="D12">
-        <v>0.8024250338176065</v>
+        <v>0.7730155971578776</v>
       </c>
       <c r="E12">
-        <v>0.8704340848302159</v>
+        <v>0.8517858547479064</v>
       </c>
       <c r="F12">
-        <v>0.8192306725276969</v>
+        <v>0.8155748757506561</v>
       </c>
       <c r="G12">
-        <v>0.8704340848302159</v>
+        <v>0.8517858547479064</v>
       </c>
       <c r="H12">
         <v>0.7362427115208275</v>
       </c>
       <c r="I12">
-        <v>0.547311388340508</v>
+        <v>0.5586886299525238</v>
       </c>
       <c r="J12">
-        <v>0.8571303529422168</v>
+        <v>0.8528549568450716</v>
       </c>
       <c r="K12">
-        <v>0.9895991000054145</v>
+        <v>0.9894396819828559</v>
       </c>
       <c r="L12">
-        <v>0.9980955420239869</v>
+        <v>0.9980612932720015</v>
       </c>
       <c r="M12">
-        <v>0.9913285274887094</v>
+        <v>0.9909584193839214</v>
       </c>
       <c r="N12">
-        <v>0.9976058584561329</v>
+        <v>0.9975499229625928</v>
       </c>
       <c r="O12">
         <v>0.3093548204387422</v>
       </c>
       <c r="P12">
-        <v>0.9693902206921076</v>
+        <v>0.9655298944704581</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1096,49 +1096,49 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>0.1691908154036529</v>
+        <v>0.1602904100858037</v>
       </c>
       <c r="C13">
-        <v>0.05648069072894402</v>
+        <v>0.05475169348117906</v>
       </c>
       <c r="D13">
-        <v>0.9190713980483691</v>
+        <v>0.9152342376883414</v>
       </c>
       <c r="E13">
-        <v>0.9498070532649618</v>
+        <v>0.942958027362945</v>
       </c>
       <c r="F13">
-        <v>0.3830728611449417</v>
+        <v>0.3649265740094738</v>
       </c>
       <c r="G13">
-        <v>0.9498070532649618</v>
+        <v>0.942958027362945</v>
       </c>
       <c r="H13">
         <v>0.7133813303383055</v>
       </c>
       <c r="I13">
-        <v>0.6812012436262882</v>
+        <v>0.7156374654759728</v>
       </c>
       <c r="J13">
-        <v>0.8452559784929111</v>
+        <v>0.8442476840002475</v>
       </c>
       <c r="K13">
-        <v>0.9029542960629434</v>
+        <v>0.8993281857850085</v>
       </c>
       <c r="L13">
-        <v>0.8639312289190071</v>
+        <v>0.8550310729252749</v>
       </c>
       <c r="M13">
-        <v>0.6711784517288597</v>
+        <v>0.6639516023936879</v>
       </c>
       <c r="N13">
-        <v>0.9659267629000615</v>
+        <v>0.9636257758206996</v>
       </c>
       <c r="O13">
         <v>-0.228976975112574</v>
       </c>
       <c r="P13">
-        <v>0.9150162885255297</v>
+        <v>0.9024386039273483</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1146,49 +1146,49 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>0.6920540578389616</v>
+        <v>0.6915565717030344</v>
       </c>
       <c r="C14">
-        <v>0.3146586747078748</v>
+        <v>0.3145119551200224</v>
       </c>
       <c r="D14">
-        <v>0.872051951767041</v>
+        <v>0.8711231850264537</v>
       </c>
       <c r="E14">
-        <v>0.9710887549404057</v>
+        <v>0.9682734719180827</v>
       </c>
       <c r="F14">
-        <v>0.8533250595768441</v>
+        <v>0.8465694273943544</v>
       </c>
       <c r="G14">
-        <v>0.9710887536106309</v>
+        <v>0.9682734706505813</v>
       </c>
       <c r="H14">
-        <v>0.0602040568536601</v>
+        <v>0.01953511747614867</v>
       </c>
       <c r="I14">
-        <v>0.5804224623706228</v>
+        <v>0.5506066220800321</v>
       </c>
       <c r="J14">
-        <v>0.8050178697844713</v>
+        <v>0.8052216677356755</v>
       </c>
       <c r="K14">
-        <v>0.4860100323954637</v>
+        <v>0.4810461913808609</v>
       </c>
       <c r="L14">
-        <v>0.9914211367503515</v>
+        <v>0.9913202523892932</v>
       </c>
       <c r="M14">
-        <v>0.9270922852150839</v>
+        <v>0.9269592104192023</v>
       </c>
       <c r="N14">
-        <v>0.9905375035153677</v>
+        <v>0.9902966882198897</v>
       </c>
       <c r="O14">
         <v>0.4508046736193099</v>
       </c>
       <c r="P14">
-        <v>0.5796684933313271</v>
+        <v>0.5561884591460512</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1196,43 +1196,43 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>0.231090177161566</v>
+        <v>0.2307769093250276</v>
       </c>
       <c r="E15">
-        <v>0.3260678670217882</v>
+        <v>0.2177725905618408</v>
       </c>
       <c r="F15">
-        <v>0.2497031913905022</v>
+        <v>0.2435797278379089</v>
       </c>
       <c r="G15">
-        <v>0.3260678670217882</v>
+        <v>0.2177725905618408</v>
       </c>
       <c r="H15">
         <v>-0.083187898590782</v>
       </c>
       <c r="I15">
-        <v>0.5204017417807324</v>
+        <v>0.5326364708136917</v>
       </c>
       <c r="J15">
-        <v>0.7245838085311925</v>
+        <v>0.724851893421801</v>
       </c>
       <c r="K15">
-        <v>0.8932453145653164</v>
+        <v>0.8888170382242304</v>
       </c>
       <c r="L15">
-        <v>0.9835883563693244</v>
+        <v>0.982040224533845</v>
       </c>
       <c r="M15">
-        <v>0.9951938063599536</v>
+        <v>0.9948269666222401</v>
       </c>
       <c r="N15">
-        <v>0.892924252868144</v>
+        <v>0.8878858475112491</v>
       </c>
       <c r="O15">
         <v>0.1763232532186849</v>
       </c>
       <c r="P15">
-        <v>0.9058222107814241</v>
+        <v>0.9039506931906074</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1240,49 +1240,49 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>0.8319035011403038</v>
+        <v>0.8285518387434248</v>
       </c>
       <c r="C16">
-        <v>0.6570880445763142</v>
+        <v>0.65707886483359</v>
       </c>
       <c r="D16">
-        <v>0.880017356836454</v>
+        <v>0.8785052704573098</v>
       </c>
       <c r="E16">
-        <v>0.8786327795440722</v>
+        <v>0.8763799838694721</v>
       </c>
       <c r="F16">
-        <v>0.8505264290061872</v>
+        <v>0.845558290284718</v>
       </c>
       <c r="G16">
-        <v>0.8786327795440722</v>
+        <v>0.8763799838694721</v>
       </c>
       <c r="H16">
         <v>0.3401017531851734</v>
       </c>
       <c r="I16">
-        <v>0.7468003033973526</v>
+        <v>0.7581487649310313</v>
       </c>
       <c r="J16">
-        <v>0.7583158344142473</v>
+        <v>0.7582989497357975</v>
       </c>
       <c r="K16">
-        <v>0.9085964965302056</v>
+        <v>0.9074976864114448</v>
       </c>
       <c r="L16">
-        <v>0.9689037921119458</v>
+        <v>0.9683056903048916</v>
       </c>
       <c r="M16">
-        <v>0.9468475114294649</v>
+        <v>0.9458116187198905</v>
       </c>
       <c r="N16">
-        <v>0.9554590941334685</v>
+        <v>0.9542882065045331</v>
       </c>
       <c r="O16">
         <v>-0.2833816138076322</v>
       </c>
       <c r="P16">
-        <v>0.8270748573511923</v>
+        <v>0.8235085616511201</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1290,49 +1290,49 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.5437811111102386</v>
+        <v>0.5393548949406178</v>
       </c>
       <c r="C17">
-        <v>0.1394647728595124</v>
+        <v>0.1351070654559225</v>
       </c>
       <c r="D17">
-        <v>0.7145230228780746</v>
+        <v>0.7035330689449382</v>
       </c>
       <c r="E17">
-        <v>0.9098682113851265</v>
+        <v>0.8968471908222023</v>
       </c>
       <c r="F17">
-        <v>0.6234521156309623</v>
+        <v>0.6145132272125051</v>
       </c>
       <c r="G17">
-        <v>0.9098682113851265</v>
+        <v>0.8968471908222023</v>
       </c>
       <c r="H17">
-        <v>0.6281511920858145</v>
+        <v>0.64883691073298</v>
       </c>
       <c r="I17">
-        <v>0.6828094684564511</v>
+        <v>0.6773688240979521</v>
       </c>
       <c r="J17">
-        <v>0.6411152091580158</v>
+        <v>0.6378826330033287</v>
       </c>
       <c r="K17">
-        <v>0.9465819174254405</v>
+        <v>0.9450863686508205</v>
       </c>
       <c r="L17">
-        <v>0.9481566263822319</v>
+        <v>0.9462178748752852</v>
       </c>
       <c r="M17">
-        <v>0.9862245410510145</v>
+        <v>0.9858380228744129</v>
       </c>
       <c r="N17">
-        <v>0.930119202154301</v>
+        <v>0.9265953064773035</v>
       </c>
       <c r="O17">
         <v>0.03516212367610137</v>
       </c>
       <c r="P17">
-        <v>0.9542330189059109</v>
+        <v>0.9528202761275799</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1340,49 +1340,49 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.2396111038937715</v>
+        <v>0.238410156215519</v>
       </c>
       <c r="C18">
-        <v>0.1276532825225762</v>
+        <v>0.125142050652451</v>
       </c>
       <c r="D18">
-        <v>0.2267955057339971</v>
+        <v>0.2252974616974336</v>
       </c>
       <c r="E18">
-        <v>0.8114783878693614</v>
+        <v>0.8032895177132126</v>
       </c>
       <c r="F18">
-        <v>0.2614988763928492</v>
+        <v>0.2507114244618325</v>
       </c>
       <c r="G18">
-        <v>0.8114783878693614</v>
+        <v>0.8032895177132126</v>
       </c>
       <c r="H18">
         <v>0.3994527438434349</v>
       </c>
       <c r="I18">
-        <v>0.09146922938680621</v>
+        <v>0.09426943022618424</v>
       </c>
       <c r="J18">
-        <v>0.7108738003722377</v>
+        <v>0.7113564199835862</v>
       </c>
       <c r="K18">
-        <v>0.921508204695177</v>
+        <v>0.9196166691184313</v>
       </c>
       <c r="L18">
-        <v>0.9581552278692563</v>
+        <v>0.9554942683101978</v>
       </c>
       <c r="M18">
-        <v>0.9533506273377378</v>
+        <v>0.9504447775538748</v>
       </c>
       <c r="N18">
-        <v>0.9330761197670617</v>
+        <v>0.9283525784406358</v>
       </c>
       <c r="O18">
         <v>-0.1879629468325832</v>
       </c>
       <c r="P18">
-        <v>0.933298728709121</v>
+        <v>0.9271207918601864</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1417,7 +1417,7 @@
         <v>0.8502856914104072</v>
       </c>
       <c r="K19">
-        <v>0.9014068075238518</v>
+        <v>0.898684718689696</v>
       </c>
       <c r="L19">
         <v>0.9439791206163712</v>
@@ -1440,49 +1440,49 @@
         <v>33</v>
       </c>
       <c r="B20">
-        <v>0.64713378195914</v>
+        <v>0.648510296573347</v>
       </c>
       <c r="C20">
-        <v>0.5992008574851261</v>
+        <v>0.5894890202584799</v>
       </c>
       <c r="D20">
-        <v>0.8191259054561028</v>
+        <v>0.8181574168593705</v>
       </c>
       <c r="E20">
-        <v>0.9629194525315955</v>
+        <v>0.9604630584257058</v>
       </c>
       <c r="F20">
-        <v>0.9325926497977104</v>
+        <v>0.92987904446239</v>
       </c>
       <c r="G20">
-        <v>0.9629194525315955</v>
+        <v>0.9604630584257058</v>
       </c>
       <c r="H20">
         <v>-0.05405340170850968</v>
       </c>
       <c r="I20">
-        <v>0.9056421741496982</v>
+        <v>0.9029666267065685</v>
       </c>
       <c r="J20">
-        <v>0.8236422188253235</v>
+        <v>0.8238861164857002</v>
       </c>
       <c r="K20">
-        <v>0.7987669809458646</v>
+        <v>0.7948122479901782</v>
       </c>
       <c r="L20">
-        <v>0.7917978698461148</v>
+        <v>0.7819068892629525</v>
       </c>
       <c r="M20">
-        <v>0.8589298939506448</v>
+        <v>0.8527334123960061</v>
       </c>
       <c r="N20">
-        <v>0.847252904486111</v>
+        <v>0.8365336505103171</v>
       </c>
       <c r="O20">
         <v>-0.2796766289349856</v>
       </c>
       <c r="P20">
-        <v>0.9275557772520652</v>
+        <v>0.9256746393756533</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1490,49 +1490,49 @@
         <v>34</v>
       </c>
       <c r="B21">
-        <v>0.08504526884550263</v>
+        <v>0.08223236871973259</v>
       </c>
       <c r="C21">
-        <v>0.7060683144411047</v>
+        <v>0.7005276398229703</v>
       </c>
       <c r="D21">
-        <v>0.6740403436046609</v>
+        <v>0.669749072463905</v>
       </c>
       <c r="E21">
-        <v>0.8482636506596519</v>
+        <v>0.8321048125571843</v>
       </c>
       <c r="F21">
-        <v>0.2111691023615241</v>
+        <v>0.2010344924619237</v>
       </c>
       <c r="G21">
-        <v>0.8482636506596519</v>
+        <v>0.8321048125571843</v>
       </c>
       <c r="H21">
         <v>0.2559253801868889</v>
       </c>
       <c r="I21">
-        <v>0.5329906813114034</v>
+        <v>0.541391887212363</v>
       </c>
       <c r="J21">
-        <v>0.4246033673641154</v>
+        <v>0.424363902120819</v>
       </c>
       <c r="K21">
-        <v>0.9473282910061483</v>
+        <v>0.946162932514085</v>
       </c>
       <c r="L21">
-        <v>0.986576109378987</v>
+        <v>0.9862295392726227</v>
       </c>
       <c r="M21">
-        <v>0.9921004361380301</v>
+        <v>0.9919019800631542</v>
       </c>
       <c r="N21">
-        <v>0.9591288013240289</v>
+        <v>0.9575344623599419</v>
       </c>
       <c r="O21">
         <v>-0.4572899846348844</v>
       </c>
       <c r="P21">
-        <v>0.9317872831077985</v>
+        <v>0.9306675254205298</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1540,49 +1540,49 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>0.3138187883135162</v>
+        <v>0.3130652968618335</v>
       </c>
       <c r="C22">
-        <v>0.1648505414353448</v>
+        <v>0.1500903908373222</v>
       </c>
       <c r="D22">
-        <v>0.765091201703117</v>
+        <v>0.7660067823896738</v>
       </c>
       <c r="E22">
-        <v>0.8758282466433184</v>
+        <v>0.8689903568996752</v>
       </c>
       <c r="F22">
-        <v>0.4405329644818324</v>
+        <v>0.422774370713261</v>
       </c>
       <c r="G22">
-        <v>0.8758282466433184</v>
+        <v>0.8689903568996752</v>
       </c>
       <c r="H22">
         <v>0.782244329048668</v>
       </c>
       <c r="I22">
-        <v>0.6720637489325301</v>
+        <v>0.7129583255600471</v>
       </c>
       <c r="J22">
-        <v>0.9092898986661563</v>
+        <v>0.909443978294038</v>
       </c>
       <c r="K22">
-        <v>0.9544699964666081</v>
+        <v>0.9530291873224838</v>
       </c>
       <c r="L22">
-        <v>0.9965394169781659</v>
+        <v>0.9963565475730314</v>
       </c>
       <c r="M22">
-        <v>0.9838186160812422</v>
+        <v>0.9828765262137702</v>
       </c>
       <c r="N22">
-        <v>0.9972883363587083</v>
+        <v>0.9970807458487723</v>
       </c>
       <c r="O22">
         <v>-0.5490177791604365</v>
       </c>
       <c r="P22">
-        <v>0.8740862777080575</v>
+        <v>0.8667125739396537</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1590,49 +1590,49 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>0.5709254750926415</v>
+        <v>0.5700871271566386</v>
       </c>
       <c r="C23">
-        <v>0.2387418256968263</v>
+        <v>0.2348520254332755</v>
       </c>
       <c r="D23">
-        <v>0.1325299499050953</v>
+        <v>0.1304057001675878</v>
       </c>
       <c r="E23">
-        <v>0.3782419006715973</v>
+        <v>0.3222303921143694</v>
       </c>
       <c r="F23">
-        <v>0.5426199853268151</v>
+        <v>0.52443312582177</v>
       </c>
       <c r="G23">
-        <v>0.3782419006715973</v>
+        <v>0.3222303921143694</v>
       </c>
       <c r="H23">
         <v>0.1682612134955983</v>
       </c>
       <c r="I23">
-        <v>0.5994998115505819</v>
+        <v>0.6171326281620747</v>
       </c>
       <c r="J23">
-        <v>0.832465916921856</v>
+        <v>0.8324652233925142</v>
       </c>
       <c r="K23">
-        <v>0.9467314210760415</v>
+        <v>0.9444217110735759</v>
       </c>
       <c r="L23">
-        <v>0.9875802954059428</v>
+        <v>0.9867902392445637</v>
       </c>
       <c r="M23">
-        <v>0.990013149305771</v>
+        <v>0.9893387285438497</v>
       </c>
       <c r="N23">
-        <v>0.9678014264397492</v>
+        <v>0.9655858808776152</v>
       </c>
       <c r="O23">
         <v>-0.292412336132054</v>
       </c>
       <c r="P23">
-        <v>0.9128922453922368</v>
+        <v>0.8968483804786671</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1640,49 +1640,49 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <v>0.641818390099696</v>
+        <v>0.6428723861601009</v>
       </c>
       <c r="C24">
-        <v>0.8753944262414862</v>
+        <v>0.8670551909952017</v>
       </c>
       <c r="D24">
-        <v>0.7460561578565377</v>
+        <v>0.7483983627310002</v>
       </c>
       <c r="E24">
-        <v>0.9117380150568267</v>
+        <v>0.8953278158281516</v>
       </c>
       <c r="F24">
-        <v>0.5582692658977679</v>
+        <v>0.5241385100450261</v>
       </c>
       <c r="G24">
-        <v>0.9117380150568267</v>
+        <v>0.8953278158281516</v>
       </c>
       <c r="H24">
         <v>0.5866200674891546</v>
       </c>
       <c r="I24">
-        <v>0.8028442712645716</v>
+        <v>0.8084929112553071</v>
       </c>
       <c r="J24">
-        <v>0.7569417853936361</v>
+        <v>0.7546889033713788</v>
       </c>
       <c r="K24">
-        <v>0.9865990544374189</v>
+        <v>0.9861845568639255</v>
       </c>
       <c r="L24">
-        <v>0.9947357902647636</v>
+        <v>0.9944641108680078</v>
       </c>
       <c r="M24">
-        <v>0.9922241643816888</v>
+        <v>0.9917740623708612</v>
       </c>
       <c r="N24">
-        <v>0.9989529814238183</v>
+        <v>0.998898087704452</v>
       </c>
       <c r="O24">
         <v>-0.2460862754081717</v>
       </c>
       <c r="P24">
-        <v>0.9728283627904303</v>
+        <v>0.9684656358718636</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1690,49 +1690,49 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>0.3291105177484931</v>
+        <v>0.3218477033375072</v>
       </c>
       <c r="C25">
-        <v>0.8350099176463442</v>
+        <v>0.8349617852677315</v>
       </c>
       <c r="D25">
-        <v>0.8372582096663644</v>
+        <v>0.824005207162803</v>
       </c>
       <c r="E25">
-        <v>0.9405287589420686</v>
+        <v>0.9327467747733369</v>
       </c>
       <c r="F25">
-        <v>0.4127645670049453</v>
+        <v>0.3991274729389622</v>
       </c>
       <c r="G25">
-        <v>0.9405287589420686</v>
+        <v>0.9327467747733369</v>
       </c>
       <c r="H25">
         <v>0.5678371109918831</v>
       </c>
       <c r="I25">
-        <v>0.6609211045017757</v>
+        <v>0.6286826114976072</v>
       </c>
       <c r="J25">
-        <v>0.5902080580747695</v>
+        <v>0.5888035772003405</v>
       </c>
       <c r="K25">
-        <v>0.7119440408090981</v>
+        <v>0.7069164031108655</v>
       </c>
       <c r="L25">
-        <v>0.941202479827711</v>
+        <v>0.9373646346236035</v>
       </c>
       <c r="M25">
-        <v>0.8605727712467265</v>
+        <v>0.8563843012626017</v>
       </c>
       <c r="N25">
-        <v>0.9423697879730505</v>
+        <v>0.9385669932554566</v>
       </c>
       <c r="O25">
         <v>-0.1909787406795494</v>
       </c>
       <c r="P25">
-        <v>0.890877268076494</v>
+        <v>0.8814970596164188</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1740,43 +1740,43 @@
         <v>39</v>
       </c>
       <c r="B26">
-        <v>0.2669894526941335</v>
+        <v>0.3061622696453179</v>
       </c>
       <c r="C26">
-        <v>0.3421153376626039</v>
+        <v>0.3428772125920259</v>
       </c>
       <c r="D26">
-        <v>0.1624287860149943</v>
+        <v>0.1909139071386186</v>
       </c>
       <c r="E26">
-        <v>0.7015194168140676</v>
+        <v>0.6754054263163922</v>
       </c>
       <c r="F26">
-        <v>0.1930358312117367</v>
+        <v>0.1943784174303568</v>
       </c>
       <c r="G26">
-        <v>0.7329736351775769</v>
+        <v>0.7273749544010604</v>
       </c>
       <c r="H26">
         <v>0.6550950412960671</v>
       </c>
       <c r="I26">
-        <v>0.859382001995773</v>
+        <v>0.8483398731261288</v>
       </c>
       <c r="J26">
         <v>0.7056031268622119</v>
       </c>
       <c r="K26">
-        <v>0.9017697815111083</v>
+        <v>0.9006305940222183</v>
       </c>
       <c r="L26">
         <v>0.8697659544301436</v>
       </c>
       <c r="M26">
-        <v>0.8899693468692842</v>
+        <v>0.8878221601963474</v>
       </c>
       <c r="N26">
-        <v>0.9332998711461533</v>
+        <v>0.9327942542660895</v>
       </c>
       <c r="O26">
         <v>-0.2963984663992305</v>
@@ -1790,43 +1790,43 @@
         <v>40</v>
       </c>
       <c r="B27">
-        <v>0.7899917445913409</v>
+        <v>0.7953908885160973</v>
       </c>
       <c r="C27">
-        <v>0.6636963442868639</v>
+        <v>0.6198053315002729</v>
       </c>
       <c r="D27">
-        <v>0.8791629458860549</v>
+        <v>0.8866782544620989</v>
       </c>
       <c r="E27">
-        <v>0.9300758523875404</v>
+        <v>0.920470400127525</v>
       </c>
       <c r="F27">
-        <v>0.8361541692475098</v>
+        <v>0.8367074389630782</v>
       </c>
       <c r="G27">
-        <v>0.9300758523875404</v>
+        <v>0.920470400127525</v>
       </c>
       <c r="I27">
-        <v>0.5045814676887089</v>
+        <v>0.4594527816755126</v>
       </c>
       <c r="J27">
-        <v>0.5715318280513489</v>
+        <v>0.5685673756974915</v>
       </c>
       <c r="K27">
-        <v>0.9117744714505113</v>
+        <v>0.9082520409164038</v>
       </c>
       <c r="L27">
-        <v>0.9986451922185843</v>
+        <v>0.9986659597437871</v>
       </c>
       <c r="M27">
-        <v>0.9953556715835883</v>
+        <v>0.995005293807688</v>
       </c>
       <c r="N27">
-        <v>0.9989021483275645</v>
+        <v>0.9988257299808494</v>
       </c>
       <c r="P27">
-        <v>0.9609739447871372</v>
+        <v>0.9538364296556118</v>
       </c>
     </row>
     <row r="28" spans="1:16">
